--- a/CationHazard/materials/cation hazard.xlsx
+++ b/CationHazard/materials/cation hazard.xlsx
@@ -1097,7 +1097,7 @@
     <row r="2">
       <c r="A2" s="1" t="n"/>
       <c r="B2" s="2" t="n">
-        <v>1165</v>
+        <v>10019</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>0</v>

--- a/CationHazard/materials/cation hazard.xlsx
+++ b/CationHazard/materials/cation hazard.xlsx
@@ -1097,7 +1097,7 @@
     <row r="2">
       <c r="A2" s="1" t="n"/>
       <c r="B2" s="2" t="n">
-        <v>10019</v>
+        <v>17475</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>0</v>

--- a/CationHazard/materials/cation hazard.xlsx
+++ b/CationHazard/materials/cation hazard.xlsx
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" s="2" t="n"/>
       <c r="B2" s="4" t="n">
-        <v>4893</v>
+        <v>10019</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>0</v>
@@ -502,10 +502,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="n"/>
       <c r="H2" s="1" t="n"/>

--- a/CationHazard/materials/cation hazard.xlsx
+++ b/CationHazard/materials/cation hazard.xlsx
@@ -493,19 +493,19 @@
     <row r="2">
       <c r="A2" s="2" t="n"/>
       <c r="B2" s="4" t="n">
-        <v>10019</v>
+        <v>11184</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>19805</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="G2" s="1" t="n"/>
       <c r="H2" s="1" t="n"/>

--- a/CationHazard/materials/cation hazard.xlsx
+++ b/CationHazard/materials/cation hazard.xlsx
@@ -496,7 +496,7 @@
         <v>11184</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>19805</v>
+        <v>23766</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -505,7 +505,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G2" s="1" t="n"/>
       <c r="H2" s="1" t="n"/>

--- a/CationHazard/materials/cation hazard.xlsx
+++ b/CationHazard/materials/cation hazard.xlsx
@@ -1119,7 +1119,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G2" s="4" t="n"/>
       <c r="H2" s="4" t="n"/>
@@ -1202,7 +1202,7 @@
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>0</v>

--- a/CationHazard/materials/cation hazard.xlsx
+++ b/CationHazard/materials/cation hazard.xlsx
@@ -1110,16 +1110,16 @@
         <v>11184</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>23766</v>
+        <v>23842</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G2" s="4" t="n"/>
       <c r="H2" s="4" t="n"/>
@@ -1202,7 +1202,7 @@
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="2" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>0</v>

--- a/CationHazard/materials/cation hazard.xlsx
+++ b/CationHazard/materials/cation hazard.xlsx
@@ -27,15 +27,29 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -48,20 +62,6 @@
     </font>
     <font>
       <name val="等线"/>
-      <charset val="134"/>
-      <color theme="1"/>
-      <sz val="12"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
       <charset val="0"/>
       <color rgb="FFFF0000"/>
       <sz val="11"/>
@@ -80,7 +80,37 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -93,6 +123,44 @@
     </font>
     <font>
       <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -102,81 +170,13 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
       <i val="1"/>
       <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill/>
     </fill>
@@ -209,181 +209,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,15 +388,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -425,22 +410,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,9 +432,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,10 +482,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -497,148 +491,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1044,7 +1038,7 @@
   <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="12.4"/>
@@ -1107,19 +1101,19 @@
     <row r="2">
       <c r="A2" s="1" t="n"/>
       <c r="B2" s="2" t="n">
-        <v>11184</v>
+        <v>1864</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>23842</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="G2" s="4" t="n"/>
       <c r="H2" s="4" t="n"/>
@@ -1202,7 +1196,7 @@
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="2" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>0</v>

--- a/CationHazard/materials/cation hazard.xlsx
+++ b/CationHazard/materials/cation hazard.xlsx
@@ -1104,16 +1104,16 @@
         <v>1864</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G2" s="4" t="n"/>
       <c r="H2" s="4" t="n"/>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3" t="n"/>
       <c r="F5" s="4" t="n"/>

--- a/CationHazard/materials/cation hazard.xlsx
+++ b/CationHazard/materials/cation hazard.xlsx
@@ -27,8 +27,30 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -41,15 +63,17 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="12"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -63,7 +87,30 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -72,6 +119,51 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -83,98 +175,6 @@
       <sz val="18"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -209,49 +209,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,121 +371,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,6 +388,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -408,34 +426,19 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -456,15 +459,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -480,159 +474,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="12.4"/>
@@ -1101,10 +1101,10 @@
     <row r="2">
       <c r="A2" s="1" t="n"/>
       <c r="B2" s="2" t="n">
-        <v>1864</v>
+        <v>2330</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>6</v>
+        <v>379</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="G2" s="4" t="n"/>
       <c r="H2" s="4" t="n"/>
@@ -1196,13 +1196,13 @@
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="2" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3" t="n"/>
       <c r="F5" s="4" t="n"/>

--- a/CationHazard/materials/cation hazard.xlsx
+++ b/CationHazard/materials/cation hazard.xlsx
@@ -1101,10 +1101,10 @@
     <row r="2">
       <c r="A2" s="1" t="n"/>
       <c r="B2" s="2" t="n">
-        <v>2330</v>
+        <v>2563</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G2" s="4" t="n"/>
       <c r="H2" s="4" t="n"/>

--- a/CationHazard/materials/cation hazard.xlsx
+++ b/CationHazard/materials/cation hazard.xlsx
@@ -1101,19 +1101,19 @@
     <row r="2">
       <c r="A2" s="1" t="n"/>
       <c r="B2" s="2" t="n">
-        <v>699</v>
+        <v>9320</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="G2" s="4" t="n"/>
       <c r="H2" s="4" t="n"/>
@@ -1196,13 +1196,13 @@
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="3" t="n"/>
       <c r="F5" s="4" t="n"/>
